--- a/Lab_3/Segway_files/Outputs/output4.xlsx
+++ b/Lab_3/Segway_files/Outputs/output4.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>153.4396965478423</v>
+        <v>10103.17260415579</v>
       </c>
       <c r="C2">
-        <v>272.7938957776499</v>
+        <v>9997.387060990826</v>
       </c>
       <c r="D2">
-        <v>0.003221040826878243</v>
+        <v>-0.003098527632486275</v>
       </c>
       <c r="E2">
-        <v>-1.005832978818652</v>
+        <v>-0.007176510839666412</v>
       </c>
       <c r="F2">
-        <v>0.02497634904719179</v>
+        <v>-0.9870715420334579</v>
       </c>
       <c r="G2">
-        <v>855</v>
+        <v>10000.0514</v>
       </c>
       <c r="H2">
-        <v>300.190955</v>
+        <v>9980.734</v>
       </c>
       <c r="I2">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,28 +438,28 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>136.8012660197174</v>
+        <v>10255.14597569201</v>
       </c>
       <c r="C3">
-        <v>304.1856800026298</v>
+        <v>9972.818892067431</v>
       </c>
       <c r="D3">
-        <v>0.0006470175504953247</v>
+        <v>-0.0007358580944778307</v>
       </c>
       <c r="E3">
-        <v>-0.9935142555407492</v>
+        <v>-0.01797047532798924</v>
       </c>
       <c r="F3">
-        <v>0.01922719302663374</v>
+        <v>-0.9916464844091385</v>
       </c>
       <c r="G3">
-        <v>854.3750051838629</v>
+        <v>10000.04746979962</v>
       </c>
       <c r="H3">
-        <v>300.1884094545378</v>
+        <v>9987.008998769206</v>
       </c>
       <c r="I3">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -467,28 +467,28 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>156.9061944444247</v>
+        <v>9841.904951439192</v>
       </c>
       <c r="C4">
-        <v>323.9983018676451</v>
+        <v>9922.067197279064</v>
       </c>
       <c r="D4">
-        <v>-0.001834384692562445</v>
+        <v>-0.005510888455339806</v>
       </c>
       <c r="E4">
-        <v>-1.00742284018541</v>
+        <v>-0.01735531514332971</v>
       </c>
       <c r="F4">
-        <v>0.02976048655832961</v>
+        <v>-0.9866428248302995</v>
       </c>
       <c r="G4">
-        <v>853.1250155515886</v>
+        <v>10000.03960939886</v>
       </c>
       <c r="H4">
-        <v>300.1833183636134</v>
+        <v>9999.558996307616</v>
       </c>
       <c r="I4">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -496,28 +496,28 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>129.8322238305747</v>
+        <v>10199.201748872</v>
       </c>
       <c r="C5">
-        <v>324.2683629360513</v>
+        <v>9806.653943468227</v>
       </c>
       <c r="D5">
-        <v>-0.002107974045015203</v>
+        <v>0.001148650843268457</v>
       </c>
       <c r="E5">
-        <v>-0.9629490504814257</v>
+        <v>-0.05471945991742996</v>
       </c>
       <c r="F5">
-        <v>-0.004205380195677168</v>
+        <v>-0.9836810283142142</v>
       </c>
       <c r="G5">
-        <v>851.2500311031772</v>
+        <v>10000.02781879771</v>
       </c>
       <c r="H5">
-        <v>300.1756817272266</v>
+        <v>10018.38399261523</v>
       </c>
       <c r="I5">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -525,28 +525,28 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>169.194674353829</v>
+        <v>10190.52603989205</v>
       </c>
       <c r="C6">
-        <v>307.6117844099737</v>
+        <v>9993.550756175217</v>
       </c>
       <c r="D6">
-        <v>0.004415040220473401</v>
+        <v>-0.001059720628510858</v>
       </c>
       <c r="E6">
-        <v>-1.001633646276904</v>
+        <v>0.01034931762600753</v>
       </c>
       <c r="F6">
-        <v>0.02227641731915245</v>
+        <v>-0.9700274200084763</v>
       </c>
       <c r="G6">
-        <v>848.7500518386287</v>
+        <v>10000.01209799619</v>
       </c>
       <c r="H6">
-        <v>300.1654995453777</v>
+        <v>10043.48398769205</v>
       </c>
       <c r="I6">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -554,28 +554,28 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>179.7146383090535</v>
+        <v>9662.497116465551</v>
       </c>
       <c r="C7">
-        <v>295.7598453182276</v>
+        <v>9970.542717476879</v>
       </c>
       <c r="D7">
-        <v>0.001109730172090347</v>
+        <v>0.007639004400486955</v>
       </c>
       <c r="E7">
-        <v>-1.008295358521573</v>
+        <v>-0.005832316139712094</v>
       </c>
       <c r="F7">
-        <v>-0.003486053203631102</v>
+        <v>-1.025008742667749</v>
       </c>
       <c r="G7">
-        <v>845.625077757943</v>
+        <v>9999.992446994285</v>
       </c>
       <c r="H7">
-        <v>300.1527718180665</v>
+        <v>10074.85898153808</v>
       </c>
       <c r="I7">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -583,28 +583,28 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>148.0771300850516</v>
+        <v>10025.54261015972</v>
       </c>
       <c r="C8">
-        <v>294.1856800808354</v>
+        <v>9795.124542654497</v>
       </c>
       <c r="D8">
-        <v>0.01116666356059706</v>
+        <v>0.002024104299510929</v>
       </c>
       <c r="E8">
-        <v>-1.02104234224674</v>
+        <v>0.05167830799119977</v>
       </c>
       <c r="F8">
-        <v>0.01047199448881812</v>
+        <v>-1.022256978081933</v>
       </c>
       <c r="G8">
-        <v>841.8751088611201</v>
+        <v>9999.968865792</v>
       </c>
       <c r="H8">
-        <v>300.1374985452931</v>
+        <v>10112.50897415331</v>
       </c>
       <c r="I8">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -612,28 +612,28 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>177.7579898613451</v>
+        <v>10104.23372530771</v>
       </c>
       <c r="C9">
-        <v>313.5591056196861</v>
+        <v>9983.169302258719</v>
       </c>
       <c r="D9">
-        <v>-0.003716724111148732</v>
+        <v>0.005358821682483206</v>
       </c>
       <c r="E9">
-        <v>-1.00186477838517</v>
+        <v>0.03477220440729523</v>
       </c>
       <c r="F9">
-        <v>0.005211745488905005</v>
+        <v>-0.9909407805623462</v>
       </c>
       <c r="G9">
-        <v>837.5001451481601</v>
+        <v>9999.941354389333</v>
       </c>
       <c r="H9">
-        <v>300.1196797270574</v>
+        <v>10156.43396553774</v>
       </c>
       <c r="I9">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -641,28 +641,28 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>177.8163633574327</v>
+        <v>10102.97156594818</v>
       </c>
       <c r="C10">
-        <v>304.8436332437012</v>
+        <v>10149.836570777</v>
       </c>
       <c r="D10">
-        <v>0.00417819975599209</v>
+        <v>-0.004489031015322028</v>
       </c>
       <c r="E10">
-        <v>-1.003823417020254</v>
+        <v>-0.01581807630905496</v>
       </c>
       <c r="F10">
-        <v>-0.02204506497709538</v>
+        <v>-1.016945271152874</v>
       </c>
       <c r="G10">
-        <v>832.5001866190629</v>
+        <v>9999.909912786285</v>
       </c>
       <c r="H10">
-        <v>300.0993153633594</v>
+        <v>10206.63395569138</v>
       </c>
       <c r="I10">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -670,28 +670,28 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>210.2282711530441</v>
+        <v>10311.96826562867</v>
       </c>
       <c r="C11">
-        <v>303.1828002694015</v>
+        <v>10166.01726384957</v>
       </c>
       <c r="D11">
-        <v>-0.009960970791415384</v>
+        <v>0.008703465265582303</v>
       </c>
       <c r="E11">
-        <v>-1.02158652335127</v>
+        <v>-0.01109919011657199</v>
       </c>
       <c r="F11">
-        <v>0.02014950438770123</v>
+        <v>-1.011054102489523</v>
       </c>
       <c r="G11">
-        <v>826.8752332738286</v>
+        <v>9999.874540982855</v>
       </c>
       <c r="H11">
-        <v>300.0764054541993</v>
+        <v>10263.10894461423</v>
       </c>
       <c r="I11">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -699,28 +699,28 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>190.6677097355655</v>
+        <v>10278.77916909623</v>
       </c>
       <c r="C12">
-        <v>274.5850470199139</v>
+        <v>10207.08961733038</v>
       </c>
       <c r="D12">
-        <v>0.001692041788859407</v>
+        <v>-0.00488288620158584</v>
       </c>
       <c r="E12">
-        <v>-0.9921425014467524</v>
+        <v>-0.01800578550810764</v>
       </c>
       <c r="F12">
-        <v>0.003418492188365273</v>
+        <v>-1.006386790193755</v>
       </c>
       <c r="G12">
-        <v>820.6252851124572</v>
+        <v>9999.835238979045</v>
       </c>
       <c r="H12">
-        <v>300.0509499995769</v>
+        <v>10325.85893230628</v>
       </c>
       <c r="I12">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -728,28 +728,28 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>215.3976327670983</v>
+        <v>10515.16466975276</v>
       </c>
       <c r="C13">
-        <v>299.6335442238679</v>
+        <v>9928.048328248116</v>
       </c>
       <c r="D13">
-        <v>0.003957573801149179</v>
+        <v>0.01282216165423401</v>
       </c>
       <c r="E13">
-        <v>-1.039941016480919</v>
+        <v>0.02713323274132989</v>
       </c>
       <c r="F13">
-        <v>-0.01326574227333849</v>
+        <v>-1.016822667996336</v>
       </c>
       <c r="G13">
-        <v>814.3753369510857</v>
+        <v>9999.795936975235</v>
       </c>
       <c r="H13">
-        <v>300.0254945449545</v>
+        <v>10388.60891999833</v>
       </c>
       <c r="I13">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -757,28 +757,28 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>173.1004447550771</v>
+        <v>10319.86529753855</v>
       </c>
       <c r="C14">
-        <v>319.2459682985308</v>
+        <v>9725.333426234212</v>
       </c>
       <c r="D14">
-        <v>-0.007786249924156883</v>
+        <v>-0.007908486261709478</v>
       </c>
       <c r="E14">
-        <v>-1.016650922507265</v>
+        <v>0.0009780188747125348</v>
       </c>
       <c r="F14">
-        <v>-0.01210489995327932</v>
+        <v>-0.9939965925474668</v>
       </c>
       <c r="G14">
-        <v>808.1253887897143</v>
+        <v>9999.756634971425</v>
       </c>
       <c r="H14">
-        <v>300.0000390903322</v>
+        <v>10451.35890769038</v>
       </c>
       <c r="I14">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -786,28 +786,28 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>184.7499386419833</v>
+        <v>10185.04881107796</v>
       </c>
       <c r="C15">
-        <v>290.5031419659604</v>
+        <v>10064.35955130177</v>
       </c>
       <c r="D15">
-        <v>-0.00411796185622735</v>
+        <v>0.002157612442258911</v>
       </c>
       <c r="E15">
-        <v>-1.008839283735459</v>
+        <v>-0.02184998437327279</v>
       </c>
       <c r="F15">
-        <v>-0.005342882601129885</v>
+        <v>-0.9887968656977171</v>
       </c>
       <c r="G15">
-        <v>802.50043544448</v>
+        <v>9999.721263167996</v>
       </c>
       <c r="H15">
-        <v>299.977129181172</v>
+        <v>10507.83389661323</v>
       </c>
       <c r="I15">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -815,28 +815,28 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>235.4409806752517</v>
+        <v>10682.70986395051</v>
       </c>
       <c r="C16">
-        <v>281.5698271133749</v>
+        <v>9699.517049844564</v>
       </c>
       <c r="D16">
-        <v>0.004498401647245053</v>
+        <v>0.002033860030479421</v>
       </c>
       <c r="E16">
-        <v>-0.974797595360285</v>
+        <v>-0.001231205760847737</v>
       </c>
       <c r="F16">
-        <v>-0.01009026977196945</v>
+        <v>-1.013888708258332</v>
       </c>
       <c r="G16">
-        <v>797.5004769153828</v>
+        <v>9999.689821564947</v>
       </c>
       <c r="H16">
-        <v>299.9567648174741</v>
+        <v>10558.03388676687</v>
       </c>
       <c r="I16">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -844,28 +844,28 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>205.3887719674926</v>
+        <v>10528.25941927256</v>
       </c>
       <c r="C17">
-        <v>290.926090399937</v>
+        <v>10051.3666287226</v>
       </c>
       <c r="D17">
-        <v>-0.00563745131278925</v>
+        <v>-0.007696433517131065</v>
       </c>
       <c r="E17">
-        <v>-1.042028704009325</v>
+        <v>-0.01668212070247244</v>
       </c>
       <c r="F17">
-        <v>0.02850985609567916</v>
+        <v>-1.033706845832682</v>
       </c>
       <c r="G17">
-        <v>793.1255132024228</v>
+        <v>9999.662310162281</v>
       </c>
       <c r="H17">
-        <v>299.9389459992384</v>
+        <v>10601.9588781513</v>
       </c>
       <c r="I17">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -873,28 +873,28 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>213.5834243128172</v>
+        <v>10800.93096704253</v>
       </c>
       <c r="C18">
-        <v>318.6429318434421</v>
+        <v>10107.82347321881</v>
       </c>
       <c r="D18">
-        <v>0.01395139824345492</v>
+        <v>0.005848814068015417</v>
       </c>
       <c r="E18">
-        <v>-1.028373232945463</v>
+        <v>0.02239385356863071</v>
       </c>
       <c r="F18">
-        <v>-0.001457888588509365</v>
+        <v>-1.030734950011242</v>
       </c>
       <c r="G18">
-        <v>789.3755443055999</v>
+        <v>9999.638728959995</v>
       </c>
       <c r="H18">
-        <v>299.923672726465</v>
+        <v>10639.60887076653</v>
       </c>
       <c r="I18">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -902,28 +902,28 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>225.69172482918</v>
+        <v>10542.52293259393</v>
       </c>
       <c r="C19">
-        <v>269.6309153774413</v>
+        <v>10183.65679315792</v>
       </c>
       <c r="D19">
-        <v>0.0008056803658606017</v>
+        <v>-0.01075372236029444</v>
       </c>
       <c r="E19">
-        <v>-0.9834344752068861</v>
+        <v>-0.01716078245100141</v>
       </c>
       <c r="F19">
-        <v>0.03122643624356154</v>
+        <v>-0.9821955996288687</v>
       </c>
       <c r="G19">
-        <v>786.2505702249142</v>
+        <v>9999.61907795809</v>
       </c>
       <c r="H19">
-        <v>299.9109449991538</v>
+        <v>10670.98386461256</v>
       </c>
       <c r="I19">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -931,28 +931,28 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>209.8259033536531</v>
+        <v>10673.65411206954</v>
       </c>
       <c r="C20">
-        <v>297.3614317990386</v>
+        <v>9948.003666284767</v>
       </c>
       <c r="D20">
-        <v>-0.005959904675052826</v>
+        <v>-0.004908209574936651</v>
       </c>
       <c r="E20">
-        <v>-1.008903626110871</v>
+        <v>-0.01220086172026892</v>
       </c>
       <c r="F20">
-        <v>0.02740842743043041</v>
+        <v>-0.9825653222805489</v>
       </c>
       <c r="G20">
-        <v>783.7505909603657</v>
+        <v>9999.603357156566</v>
       </c>
       <c r="H20">
-        <v>299.9007628173048</v>
+        <v>10696.08385968938</v>
       </c>
       <c r="I20">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -960,28 +960,28 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>260.3387804816787</v>
+        <v>11341.28140601551</v>
       </c>
       <c r="C21">
-        <v>273.7047089817422</v>
+        <v>9964.796525434136</v>
       </c>
       <c r="D21">
-        <v>-0.003718319607845365</v>
+        <v>-0.005321674354895913</v>
       </c>
       <c r="E21">
-        <v>-1.004104588435083</v>
+        <v>0.01003482177418588</v>
       </c>
       <c r="F21">
-        <v>0.009539174793012657</v>
+        <v>-1.00435394459565</v>
       </c>
       <c r="G21">
-        <v>781.8756065119543</v>
+        <v>9999.591566555422</v>
       </c>
       <c r="H21">
-        <v>299.8931261809181</v>
+        <v>10714.908855997</v>
       </c>
       <c r="I21">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -989,28 +989,28 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>267.6537496472234</v>
+        <v>10936.96446874085</v>
       </c>
       <c r="C22">
-        <v>281.3033649835845</v>
+        <v>9838.230476143022</v>
       </c>
       <c r="D22">
-        <v>0.002466094241004777</v>
+        <v>-0.00219487284423199</v>
       </c>
       <c r="E22">
-        <v>-1.004125125459053</v>
+        <v>-0.003853270802004918</v>
       </c>
       <c r="F22">
-        <v>-0.008030416523347166</v>
+        <v>-1.008630984221806</v>
       </c>
       <c r="G22">
-        <v>780.62561687968</v>
+        <v>9999.583706154661</v>
       </c>
       <c r="H22">
-        <v>299.8880350899937</v>
+        <v>10727.45885353541</v>
       </c>
       <c r="I22">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1018,28 +1018,28 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>218.5003946943968</v>
+        <v>10803.68964365838</v>
       </c>
       <c r="C23">
-        <v>296.5516590280129</v>
+        <v>9813.631282374638</v>
       </c>
       <c r="D23">
-        <v>-0.002790683369073791</v>
+        <v>-0.002665760566130323</v>
       </c>
       <c r="E23">
-        <v>-1.007157248350888</v>
+        <v>-0.009350229235089325</v>
       </c>
       <c r="F23">
-        <v>0.03217161500970737</v>
+        <v>-1.005843463743786</v>
       </c>
       <c r="G23">
-        <v>780.0006220635429</v>
+        <v>9999.57977595428</v>
       </c>
       <c r="H23">
-        <v>299.8854895445314</v>
+        <v>10733.73385230461</v>
       </c>
       <c r="I23">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1047,28 +1047,28 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>201.7842690251803</v>
+        <v>10940.79961737048</v>
       </c>
       <c r="C24">
-        <v>286.7104127223789</v>
+        <v>9826.079858402132</v>
       </c>
       <c r="D24">
-        <v>-0.007649102608475751</v>
+        <v>-0.00134597829059859</v>
       </c>
       <c r="E24">
-        <v>-0.9925259659308917</v>
+        <v>0.01079770784078711</v>
       </c>
       <c r="F24">
-        <v>-0.009592982789100684</v>
+        <v>-1.006032906939065</v>
       </c>
       <c r="G24">
-        <v>780.0006220635429</v>
+        <v>9999.57977595428</v>
       </c>
       <c r="H24">
-        <v>299.8854895445314</v>
+        <v>10733.73385230461</v>
       </c>
       <c r="I24">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1076,28 +1076,28 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>222.4591977104697</v>
+        <v>10367.41026203599</v>
       </c>
       <c r="C25">
-        <v>315.6235425167308</v>
+        <v>10091.0855541312</v>
       </c>
       <c r="D25">
-        <v>0.0007612718566082329</v>
+        <v>5.285960410133631e-05</v>
       </c>
       <c r="E25">
-        <v>-0.9813574304468164</v>
+        <v>-0.001793111514012395</v>
       </c>
       <c r="F25">
-        <v>-0.008097177512082457</v>
+        <v>-0.9967389583893977</v>
       </c>
       <c r="G25">
-        <v>780.0006220635429</v>
+        <v>9999.57977595428</v>
       </c>
       <c r="H25">
-        <v>299.8854895445314</v>
+        <v>10733.73385230461</v>
       </c>
       <c r="I25">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1105,28 +1105,28 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>203.1453730559711</v>
+        <v>10820.65841295739</v>
       </c>
       <c r="C26">
-        <v>297.968112361701</v>
+        <v>9994.117711424951</v>
       </c>
       <c r="D26">
-        <v>0.008258628799235571</v>
+        <v>0.006866358688318626</v>
       </c>
       <c r="E26">
-        <v>-1.012390153010938</v>
+        <v>0.01531907220962614</v>
       </c>
       <c r="F26">
-        <v>-0.01558000897189305</v>
+        <v>-1.018458346890353</v>
       </c>
       <c r="G26">
-        <v>780.0006220635429</v>
+        <v>9999.57977595428</v>
       </c>
       <c r="H26">
-        <v>299.8854895445314</v>
+        <v>10733.73385230461</v>
       </c>
       <c r="I26">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1134,28 +1134,28 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>219.3933710183186</v>
+        <v>10801.22186967851</v>
       </c>
       <c r="C27">
-        <v>322.9530062456282</v>
+        <v>10296.31048883542</v>
       </c>
       <c r="D27">
-        <v>-0.009152569784975391</v>
+        <v>-0.005823933159099173</v>
       </c>
       <c r="E27">
-        <v>-1.005113751394065</v>
+        <v>-0.04045321808770805</v>
       </c>
       <c r="F27">
-        <v>-0.001444729152415299</v>
+        <v>-0.9851867066401758</v>
       </c>
       <c r="G27">
-        <v>776.8756479828572</v>
+        <v>9999.560124952375</v>
       </c>
       <c r="H27">
-        <v>299.8727618172202</v>
+        <v>10765.10884615064</v>
       </c>
       <c r="I27">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1163,28 +1163,28 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>224.5182616845845</v>
+        <v>10446.77431994465</v>
       </c>
       <c r="C28">
-        <v>262.5035490718232</v>
+        <v>10155.36182485218</v>
       </c>
       <c r="D28">
-        <v>0.000306092859714279</v>
+        <v>-0.0005809693794587528</v>
       </c>
       <c r="E28">
-        <v>-1.031666742977703</v>
+        <v>-0.0256847982512918</v>
       </c>
       <c r="F28">
-        <v>0.03164037564595489</v>
+        <v>-0.9912461175182088</v>
       </c>
       <c r="G28">
-        <v>770.6256998214858</v>
+        <v>9999.520822948565</v>
       </c>
       <c r="H28">
-        <v>299.8473063625979</v>
+        <v>10827.85883384269</v>
       </c>
       <c r="I28">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1192,28 +1192,28 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>259.6285345654338</v>
+        <v>10955.32208000401</v>
       </c>
       <c r="C29">
-        <v>274.3479761891676</v>
+        <v>9918.377454301093</v>
       </c>
       <c r="D29">
-        <v>0.005820875994887922</v>
+        <v>-0.004855879518295581</v>
       </c>
       <c r="E29">
-        <v>-0.9944787567620222</v>
+        <v>0.02904555521760294</v>
       </c>
       <c r="F29">
-        <v>-0.003787103073715661</v>
+        <v>-0.9904272715445478</v>
       </c>
       <c r="G29">
-        <v>761.2507775794287</v>
+        <v>9999.46186994285</v>
       </c>
       <c r="H29">
-        <v>299.8091231806643</v>
+        <v>10921.98381538076</v>
       </c>
       <c r="I29">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1221,28 +1221,28 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>265.5463411782635</v>
+        <v>11027.82792723367</v>
       </c>
       <c r="C30">
-        <v>277.8346580954161</v>
+        <v>9815.115329899645</v>
       </c>
       <c r="D30">
-        <v>0.001948397059594075</v>
+        <v>-0.007323395426784616</v>
       </c>
       <c r="E30">
-        <v>-1.022234014182966</v>
+        <v>-0.005689291032075018</v>
       </c>
       <c r="F30">
-        <v>-0.00975085068590693</v>
+        <v>-0.9743392796952642</v>
       </c>
       <c r="G30">
-        <v>748.7508812566858</v>
+        <v>9999.38326593523</v>
       </c>
       <c r="H30">
-        <v>299.7582122714196</v>
+        <v>11047.48379076486</v>
       </c>
       <c r="I30">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1250,28 +1250,28 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>270.7572643647775</v>
+        <v>11230.72039862972</v>
       </c>
       <c r="C31">
-        <v>267.2538268368365</v>
+        <v>9848.97553888246</v>
       </c>
       <c r="D31">
-        <v>-0.006402555653790737</v>
+        <v>0.003466142281718318</v>
       </c>
       <c r="E31">
-        <v>-0.9930564374281722</v>
+        <v>-0.02076795108364269</v>
       </c>
       <c r="F31">
-        <v>-0.005810790874657847</v>
+        <v>-0.975401409100806</v>
       </c>
       <c r="G31">
-        <v>733.1260108532573</v>
+        <v>9999.285010925705</v>
       </c>
       <c r="H31">
-        <v>299.6945736348636</v>
+        <v>11204.35875999499</v>
       </c>
       <c r="I31">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1279,28 +1279,28 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>279.784902626807</v>
+        <v>11096.56587143616</v>
       </c>
       <c r="C32">
-        <v>245.111232970894</v>
+        <v>10073.24094750296</v>
       </c>
       <c r="D32">
-        <v>-0.003186617131063329</v>
+        <v>-0.006032735348762251</v>
       </c>
       <c r="E32">
-        <v>-0.9940127887134275</v>
+        <v>-0.01102269605538317</v>
       </c>
       <c r="F32">
-        <v>-0.01437706650064459</v>
+        <v>-1.003576482053045</v>
       </c>
       <c r="G32">
-        <v>714.376166369143</v>
+        <v>9999.167104914275</v>
       </c>
       <c r="H32">
-        <v>299.6182072709964</v>
+        <v>11392.60872307114</v>
       </c>
       <c r="I32">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1308,28 +1308,28 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>301.196895829372</v>
+        <v>11193.79598830669</v>
       </c>
       <c r="C33">
-        <v>322.8751018708442</v>
+        <v>10215.33169371864</v>
       </c>
       <c r="D33">
-        <v>-0.003399213031555257</v>
+        <v>-0.004480296050464327</v>
       </c>
       <c r="E33">
-        <v>-0.9915441588476506</v>
+        <v>-0.01041698081873598</v>
       </c>
       <c r="F33">
-        <v>0.008185396242978878</v>
+        <v>-1.000933118594879</v>
       </c>
       <c r="G33">
-        <v>692.501347804343</v>
+        <v>9999.02954790094</v>
       </c>
       <c r="H33">
-        <v>299.529113179818</v>
+        <v>11612.23367999332</v>
       </c>
       <c r="I33">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1337,28 +1337,28 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>322.1915851430993</v>
+        <v>11650.01858852763</v>
       </c>
       <c r="C34">
-        <v>293.7761314086809</v>
+        <v>10166.35511003174</v>
       </c>
       <c r="D34">
-        <v>0.00702135083336353</v>
+        <v>1.411665149838651e-05</v>
       </c>
       <c r="E34">
-        <v>-1.014826564770938</v>
+        <v>-0.03492574546399099</v>
       </c>
       <c r="F34">
-        <v>-0.01933167122944932</v>
+        <v>-1.010424892871553</v>
       </c>
       <c r="G34">
-        <v>667.5015551588574</v>
+        <v>9998.8723398857</v>
       </c>
       <c r="H34">
-        <v>299.4272913613285</v>
+        <v>11863.23363076152</v>
       </c>
       <c r="I34">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1366,28 +1366,28 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>317.0096895733647</v>
+        <v>12639.12700278011</v>
       </c>
       <c r="C35">
-        <v>297.5691293674905</v>
+        <v>10206.90548074342</v>
       </c>
       <c r="D35">
-        <v>0.005670055502609482</v>
+        <v>-0.002879323966651793</v>
       </c>
       <c r="E35">
-        <v>-1.012806755771147</v>
+        <v>-0.004180461170162564</v>
       </c>
       <c r="F35">
-        <v>-0.01990509886240895</v>
+        <v>-1.024558123635665</v>
       </c>
       <c r="G35">
-        <v>639.376788432686</v>
+        <v>9998.695480868555</v>
       </c>
       <c r="H35">
-        <v>299.3127418155277</v>
+        <v>12145.60857537575</v>
       </c>
       <c r="I35">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1395,28 +1395,28 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>374.316456173133</v>
+        <v>12171.61601562566</v>
       </c>
       <c r="C36">
-        <v>305.1272988190733</v>
+        <v>9882.334586131499</v>
       </c>
       <c r="D36">
-        <v>0.001105459422610978</v>
+        <v>-0.002508409143959462</v>
       </c>
       <c r="E36">
-        <v>-0.9919115593764157</v>
+        <v>0.02952525116095223</v>
       </c>
       <c r="F36">
-        <v>0.01133814680322765</v>
+        <v>-1.010465446021952</v>
       </c>
       <c r="G36">
-        <v>608.1270476258289</v>
+        <v>9998.498970849505</v>
       </c>
       <c r="H36">
-        <v>299.1854645424158</v>
+        <v>12459.358513836</v>
       </c>
       <c r="I36">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1424,28 +1424,28 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>411.1854329090511</v>
+        <v>12692.68800209975</v>
       </c>
       <c r="C37">
-        <v>286.6931361887848</v>
+        <v>10196.1784421238</v>
       </c>
       <c r="D37">
-        <v>-0.00812595843650107</v>
+        <v>0.007878616014221011</v>
       </c>
       <c r="E37">
-        <v>-0.983109865119962</v>
+        <v>0.001947297758772093</v>
       </c>
       <c r="F37">
-        <v>0.004545632082194355</v>
+        <v>-1.007966183017698</v>
       </c>
       <c r="G37">
-        <v>576.8773068189719</v>
+        <v>9998.302460830455</v>
       </c>
       <c r="H37">
-        <v>299.0581872693039</v>
+        <v>12773.10845229625</v>
       </c>
       <c r="I37">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1453,28 +1453,28 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>458.1493606404694</v>
+        <v>12779.42365133613</v>
       </c>
       <c r="C38">
-        <v>300.9540384857728</v>
+        <v>9947.148051787273</v>
       </c>
       <c r="D38">
-        <v>-0.007434418013602221</v>
+        <v>0.001857154841213018</v>
       </c>
       <c r="E38">
-        <v>-0.9820177324114983</v>
+        <v>0.03860111809830648</v>
       </c>
       <c r="F38">
-        <v>0.002207914843674632</v>
+        <v>-0.9733987860279427</v>
       </c>
       <c r="G38">
-        <v>545.6275660121148</v>
+        <v>9998.105950811405</v>
       </c>
       <c r="H38">
-        <v>298.9309099961919</v>
+        <v>13086.85839075651</v>
       </c>
       <c r="I38">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1482,28 +1482,28 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>478.8731216232306</v>
+        <v>13815.45756958934</v>
       </c>
       <c r="C39">
-        <v>293.5305467184761</v>
+        <v>9828.34914947857</v>
       </c>
       <c r="D39">
-        <v>0.009478383388707124</v>
+        <v>0.01094306774949711</v>
       </c>
       <c r="E39">
-        <v>-1.009447152175615</v>
+        <v>0.00152502113878849</v>
       </c>
       <c r="F39">
-        <v>0.005941195884076187</v>
+        <v>-1.002524321431598</v>
       </c>
       <c r="G39">
-        <v>517.5027992859434</v>
+        <v>9997.92909179426</v>
       </c>
       <c r="H39">
-        <v>298.8163604503912</v>
+        <v>13369.23333537073</v>
       </c>
       <c r="I39">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -1511,28 +1511,28 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>492.9127395637607</v>
+        <v>13686.76353439809</v>
       </c>
       <c r="C40">
-        <v>301.6361260580379</v>
+        <v>10090.37957841417</v>
       </c>
       <c r="D40">
-        <v>0.007057852718007042</v>
+        <v>-0.0049440707714117</v>
       </c>
       <c r="E40">
-        <v>-1.006659646697804</v>
+        <v>0.02479890203297717</v>
       </c>
       <c r="F40">
-        <v>0.01656184201364539</v>
+        <v>-0.9728819188784613</v>
       </c>
       <c r="G40">
-        <v>492.5030066404577</v>
+        <v>9997.77188377902</v>
       </c>
       <c r="H40">
-        <v>298.7145386319016</v>
+        <v>13620.23328613894</v>
       </c>
       <c r="I40">
-        <v>0.004072884</v>
+        <v>-1.57017</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1540,57 +1540,57 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>555.9578165984144</v>
+        <v>13881.56404618147</v>
       </c>
       <c r="C41">
-        <v>291.7626441581268</v>
+        <v>9577.067343454559</v>
       </c>
       <c r="D41">
-        <v>0.2744021478677575</v>
+        <v>0.4680943724544455</v>
       </c>
       <c r="E41">
-        <v>-0.9762392904860289</v>
+        <v>-0.07464836720323206</v>
       </c>
       <c r="F41">
-        <v>0.05318444660954973</v>
+        <v>-1.00881265979476</v>
       </c>
       <c r="G41">
-        <v>472.1906751160006</v>
+        <v>9997.644152266637</v>
       </c>
       <c r="H41">
-        <v>298.6318084043789</v>
+        <v>13824.1707461381</v>
       </c>
       <c r="I41">
-        <v>0.03879510622222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J41">
-        <v>0.2777777777777778</v>
+        <v>0.4735849056603774</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>540.5162740705787</v>
+        <v>14115.66801131016</v>
       </c>
       <c r="C42">
-        <v>292.1673107032472</v>
+        <v>9859.532861181531</v>
       </c>
       <c r="D42">
-        <v>0.005370729079836032</v>
+        <v>-0.008047234632425517</v>
       </c>
       <c r="E42">
-        <v>-0.9676216849999466</v>
+        <v>-0.04851483146881287</v>
       </c>
       <c r="F42">
-        <v>0.01595161065400038</v>
+        <v>-0.9898395746121154</v>
       </c>
       <c r="G42">
-        <v>453.4547832863981</v>
+        <v>9986.38891791955</v>
       </c>
       <c r="H42">
-        <v>297.904582614522</v>
+        <v>14012.08397664567</v>
       </c>
       <c r="I42">
-        <v>0.03879510622222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1598,28 +1598,28 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43">
-        <v>570.1314023748546</v>
+        <v>14063.15902408252</v>
       </c>
       <c r="C43">
-        <v>311.8007821598459</v>
+        <v>10119.5201625089</v>
       </c>
       <c r="D43">
-        <v>-0.006072857264467858</v>
+        <v>-0.005656370198786166</v>
       </c>
       <c r="E43">
-        <v>-0.9948734914783973</v>
+        <v>-0.06808595855733551</v>
       </c>
       <c r="F43">
-        <v>0.01346770815978613</v>
+        <v>-1.003109807516332</v>
       </c>
       <c r="G43">
-        <v>437.8415400950626</v>
+        <v>9977.009555963645</v>
       </c>
       <c r="H43">
-        <v>297.2985611229746</v>
+        <v>14168.67833540198</v>
       </c>
       <c r="I43">
-        <v>0.03879510622222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -1627,28 +1627,28 @@
     </row>
     <row r="44" spans="2:10">
       <c r="B44">
-        <v>538.9604144714533</v>
+        <v>14445.97639461312</v>
       </c>
       <c r="C44">
-        <v>302.0086683323512</v>
+        <v>9713.684204094267</v>
       </c>
       <c r="D44">
-        <v>-0.001230090244662479</v>
+        <v>0.003368029377939332</v>
       </c>
       <c r="E44">
-        <v>-1.011867470687041</v>
+        <v>-0.0748554958794183</v>
       </c>
       <c r="F44">
-        <v>0.05588333091471746</v>
+        <v>-0.9802941465780316</v>
       </c>
       <c r="G44">
-        <v>425.3509455419942</v>
+        <v>9969.506066398921</v>
       </c>
       <c r="H44">
-        <v>296.8137439297367</v>
+        <v>14293.95382240703</v>
       </c>
       <c r="I44">
-        <v>0.03879510622222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1656,28 +1656,28 @@
     </row>
     <row r="45" spans="2:10">
       <c r="B45">
-        <v>586.6846475855233</v>
+        <v>14268.21555843569</v>
       </c>
       <c r="C45">
-        <v>238.5033328742892</v>
+        <v>9637.035107490965</v>
       </c>
       <c r="D45">
-        <v>-0.01221463840386539</v>
+        <v>-0.002047775441797462</v>
       </c>
       <c r="E45">
-        <v>-0.9934750067100411</v>
+        <v>-0.07481411052536288</v>
       </c>
       <c r="F45">
-        <v>0.04592583002439438</v>
+        <v>-1.013747100807153</v>
       </c>
       <c r="G45">
-        <v>415.982999627193</v>
+        <v>9963.878449225378</v>
       </c>
       <c r="H45">
-        <v>296.4501310348082</v>
+        <v>14387.91043766082</v>
       </c>
       <c r="I45">
-        <v>0.03879510622222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -1685,28 +1685,28 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46">
-        <v>585.5244020180448</v>
+        <v>14165.36832622649</v>
       </c>
       <c r="C46">
-        <v>268.7532508622905</v>
+        <v>10223.4078827114</v>
       </c>
       <c r="D46">
-        <v>0.003274367832437869</v>
+        <v>-0.0009200280269897331</v>
       </c>
       <c r="E46">
-        <v>-1.010537714880902</v>
+        <v>-0.05259160051525414</v>
       </c>
       <c r="F46">
-        <v>0.02428917606911721</v>
+        <v>-0.9865099061039297</v>
       </c>
       <c r="G46">
-        <v>409.7377023506588</v>
+        <v>9960.126704443015</v>
       </c>
       <c r="H46">
-        <v>296.2077224381893</v>
+        <v>14450.54818116334</v>
       </c>
       <c r="I46">
-        <v>0.03879510622222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1714,28 +1714,28 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47">
-        <v>633.4489548966444</v>
+        <v>14291.99194302898</v>
       </c>
       <c r="C47">
-        <v>312.6551583666218</v>
+        <v>10063.98882570045</v>
       </c>
       <c r="D47">
-        <v>0.003072606624396372</v>
+        <v>0.005131641110343891</v>
       </c>
       <c r="E47">
-        <v>-1.026988524759083</v>
+        <v>-0.08285945240417923</v>
       </c>
       <c r="F47">
-        <v>0.003006481584894007</v>
+        <v>-1.027764843875054</v>
       </c>
       <c r="G47">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H47">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I47">
-        <v>0.03879510622222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -1743,28 +1743,28 @@
     </row>
     <row r="48" spans="2:10">
       <c r="B48">
-        <v>585.0831153940251</v>
+        <v>14443.16986565956</v>
       </c>
       <c r="C48">
-        <v>286.7551250794921</v>
+        <v>10035.70573922261</v>
       </c>
       <c r="D48">
-        <v>-0.006205881918305167</v>
+        <v>-0.003968657142504447</v>
       </c>
       <c r="E48">
-        <v>-1.013565466165877</v>
+        <v>-0.05656729012582884</v>
       </c>
       <c r="F48">
-        <v>0.0184360358220836</v>
+        <v>-0.9802828046890211</v>
       </c>
       <c r="G48">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H48">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I48">
-        <v>0.03879510622222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1772,28 +1772,28 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49">
-        <v>619.2496308875988</v>
+        <v>14885.14226702857</v>
       </c>
       <c r="C49">
-        <v>314.4616302267129</v>
+        <v>10169.31945701862</v>
       </c>
       <c r="D49">
-        <v>-0.0002830811520465473</v>
+        <v>0.01131683367585026</v>
       </c>
       <c r="E49">
-        <v>-0.979699751676809</v>
+        <v>-0.0840853706768295</v>
       </c>
       <c r="F49">
-        <v>0.02952271881313113</v>
+        <v>-1.004846035398893</v>
       </c>
       <c r="G49">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H49">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I49">
-        <v>0.03879510622222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -1801,28 +1801,28 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50">
-        <v>616.1654958670237</v>
+        <v>14645.66425002079</v>
       </c>
       <c r="C50">
-        <v>290.7356788110947</v>
+        <v>9983.721581690401</v>
       </c>
       <c r="D50">
-        <v>0.003725859316345125</v>
+        <v>0.00247715385235431</v>
       </c>
       <c r="E50">
-        <v>-1.00568373062895</v>
+        <v>-0.09090377713075964</v>
       </c>
       <c r="F50">
-        <v>0.04948749674668479</v>
+        <v>-1.000476971801477</v>
       </c>
       <c r="G50">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H50">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I50">
-        <v>0.03879510622222222</v>
+        <v>-1.510971886792453</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1830,347 +1830,347 @@
     </row>
     <row r="51" spans="2:10">
       <c r="B51">
-        <v>606.3295065813043</v>
+        <v>14529.78689241391</v>
       </c>
       <c r="C51">
-        <v>325.4254968629797</v>
+        <v>10263.64854675874</v>
       </c>
       <c r="D51">
-        <v>-0.5629492224091601</v>
+        <v>-0.9483474779050713</v>
       </c>
       <c r="E51">
-        <v>-1.006569539090953</v>
+        <v>0.03425986596610534</v>
       </c>
       <c r="F51">
-        <v>0.01517303931666412</v>
+        <v>-0.9632419693430422</v>
       </c>
       <c r="G51">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H51">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I51">
-        <v>-0.03064933822222222</v>
+        <v>4.653817193972039</v>
       </c>
       <c r="J51">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52">
-        <v>610.0541390968591</v>
+        <v>15343.65706095576</v>
       </c>
       <c r="C52">
-        <v>310.5143198650064</v>
+        <v>10047.82755975204</v>
       </c>
       <c r="D52">
-        <v>-1.108865816138972</v>
+        <v>-1.886324013291917</v>
       </c>
       <c r="E52">
-        <v>-0.9785071960680879</v>
+        <v>0.2914444985439671</v>
       </c>
       <c r="F52">
-        <v>-0.1736770782290633</v>
+        <v>-0.9575867677147498</v>
       </c>
       <c r="G52">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H52">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I52">
-        <v>-0.1695382271111111</v>
+        <v>4.41702474114185</v>
       </c>
       <c r="J52">
-        <v>-1.111111111111111</v>
+        <v>-1.894339622641509</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53">
-        <v>690.6264412216206</v>
+        <v>16473.09993887753</v>
       </c>
       <c r="C53">
-        <v>289.8047807869095</v>
+        <v>9303.897373073454</v>
       </c>
       <c r="D53">
-        <v>-1.667762261951052</v>
+        <v>-2.840891874233012</v>
       </c>
       <c r="E53">
-        <v>-0.8933736953612532</v>
+        <v>0.5893623623934338</v>
       </c>
       <c r="F53">
-        <v>-0.3738420825342986</v>
+        <v>-0.7786945529306993</v>
       </c>
       <c r="G53">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H53">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I53">
-        <v>-0.3778715604444445</v>
+        <v>4.061836061896567</v>
       </c>
       <c r="J53">
-        <v>-1.666666666666667</v>
+        <v>-2.841509433962264</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54">
-        <v>481.0358892662044</v>
+        <v>10993.94979650466</v>
       </c>
       <c r="C54">
-        <v>384.9311344595622</v>
+        <v>5971.116906864744</v>
       </c>
       <c r="D54">
-        <v>-2.224716625510663</v>
+        <v>-3.787471953985654</v>
       </c>
       <c r="E54">
-        <v>-0.7647290518891747</v>
+        <v>0.8804810951340049</v>
       </c>
       <c r="F54">
-        <v>-0.5985337029779899</v>
+        <v>-0.3977410929700514</v>
       </c>
       <c r="G54">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H54">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I54">
-        <v>-0.6556493382222223</v>
+        <v>3.588251156236189</v>
       </c>
       <c r="J54">
-        <v>-2.222222222222222</v>
+        <v>-3.788679245283019</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55">
-        <v>357.9907699252817</v>
+        <v>10241.40903724294</v>
       </c>
       <c r="C55">
-        <v>507.2754186206548</v>
+        <v>5899.393042782354</v>
       </c>
       <c r="D55">
-        <v>-2.218858466104495</v>
+        <v>-3.783902066153939</v>
       </c>
       <c r="E55">
-        <v>-0.5868706826255592</v>
+        <v>0.9925074098841237</v>
       </c>
       <c r="F55">
-        <v>-0.8205287229976469</v>
+        <v>0.03845287071724652</v>
       </c>
       <c r="G55">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H55">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I55">
-        <v>-0.9334271160000001</v>
+        <v>3.114666250575811</v>
       </c>
       <c r="J55">
-        <v>-2.222222222222222</v>
+        <v>-3.788679245283019</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56">
-        <v>314.490406388602</v>
+        <v>11322.50212554755</v>
       </c>
       <c r="C56">
-        <v>440.7347072095305</v>
+        <v>6396.866093425918</v>
       </c>
       <c r="D56">
-        <v>-2.226310365465511</v>
+        <v>-3.7841116837382</v>
       </c>
       <c r="E56">
-        <v>-0.3506835269808886</v>
+        <v>0.8748587145681889</v>
       </c>
       <c r="F56">
-        <v>-0.9088252693468899</v>
+        <v>0.4948895760101418</v>
       </c>
       <c r="G56">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H56">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I56">
-        <v>-1.211204893777778</v>
+        <v>2.641081344915434</v>
       </c>
       <c r="J56">
-        <v>-2.222222222222222</v>
+        <v>-3.788679245283019</v>
       </c>
     </row>
     <row r="57" spans="2:10">
       <c r="B57">
-        <v>306.3558551571645</v>
+        <v>6698.779869094576</v>
       </c>
       <c r="C57">
-        <v>389.7217071658965</v>
+        <v>9899.412234404948</v>
       </c>
       <c r="D57">
-        <v>-2.222295120406582</v>
+        <v>-3.793909046588</v>
       </c>
       <c r="E57">
-        <v>-0.06597804883571888</v>
+        <v>0.5777834504981758</v>
       </c>
       <c r="F57">
-        <v>-1.036693723756973</v>
+        <v>0.8530731958199712</v>
       </c>
       <c r="G57">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H57">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I57">
-        <v>-1.488982671555556</v>
+        <v>2.167496439255056</v>
       </c>
       <c r="J57">
-        <v>-2.222222222222222</v>
+        <v>-3.788679245283019</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58">
-        <v>275.7787100819551</v>
+        <v>6138.899356278877</v>
       </c>
       <c r="C58">
-        <v>425.4329193784778</v>
+        <v>10175.43016053098</v>
       </c>
       <c r="D58">
-        <v>-2.215696082033051</v>
+        <v>-3.788360061047446</v>
       </c>
       <c r="E58">
-        <v>0.1655000107050607</v>
+        <v>0.1295485755632218</v>
       </c>
       <c r="F58">
-        <v>-0.9754322714902361</v>
+        <v>0.9858469133957031</v>
       </c>
       <c r="G58">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H58">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I58">
-        <v>4.516424857846253</v>
+        <v>1.693911533594679</v>
       </c>
       <c r="J58">
-        <v>-2.222222222222222</v>
+        <v>-3.788679245283019</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59">
-        <v>290.652897891855</v>
+        <v>5250.628497818996</v>
       </c>
       <c r="C59">
-        <v>404.0591674760515</v>
+        <v>10041.07700698346</v>
       </c>
       <c r="D59">
-        <v>-1.67752443294655</v>
+        <v>-2.843091786989557</v>
       </c>
       <c r="E59">
-        <v>0.433243452288834</v>
+        <v>-0.2182727197317349</v>
       </c>
       <c r="F59">
-        <v>-0.8937649610176828</v>
+        <v>1.008784160456386</v>
       </c>
       <c r="G59">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H59">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I59">
-        <v>4.30809152451292</v>
+        <v>1.338722854349396</v>
       </c>
       <c r="J59">
-        <v>-1.666666666666667</v>
+        <v>-2.841509433962264</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60">
-        <v>360.1569392915071</v>
+        <v>6441.379539443187</v>
       </c>
       <c r="C60">
-        <v>467.7204882649875</v>
+        <v>11096.47443552464</v>
       </c>
       <c r="D60">
-        <v>-1.109141230556687</v>
+        <v>-1.886340492167598</v>
       </c>
       <c r="E60">
-        <v>0.5273246334392755</v>
+        <v>-0.4328932791407273</v>
       </c>
       <c r="F60">
-        <v>-0.8590585260227032</v>
+        <v>0.8618045748622266</v>
       </c>
       <c r="G60">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H60">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I60">
-        <v>4.169202635624031</v>
+        <v>1.101930401519207</v>
       </c>
       <c r="J60">
-        <v>-1.111111111111111</v>
+        <v>-1.894339622641509</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61">
-        <v>367.2380121227522</v>
+        <v>6598.507858668847</v>
       </c>
       <c r="C61">
-        <v>492.1231719879949</v>
+        <v>12048.22221753131</v>
       </c>
       <c r="D61">
-        <v>-0.5602800358139747</v>
+        <v>-0.9461209276420897</v>
       </c>
       <c r="E61">
-        <v>0.5751560058802364</v>
+        <v>-0.5552488406744094</v>
       </c>
       <c r="F61">
-        <v>-0.8449096790770916</v>
+        <v>0.8613101753676842</v>
       </c>
       <c r="G61">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H61">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I61">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J61">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62">
-        <v>374.0502162773559</v>
+        <v>6620.331221354193</v>
       </c>
       <c r="C62">
-        <v>523.8540720150767</v>
+        <v>12209.03278503634</v>
       </c>
       <c r="D62">
-        <v>-0.005168506538835121</v>
+        <v>0.002503187374316017</v>
       </c>
       <c r="E62">
-        <v>0.5650873794373994</v>
+        <v>-0.5465469648600536</v>
       </c>
       <c r="F62">
-        <v>-0.827509274631625</v>
+        <v>0.8403027263538519</v>
       </c>
       <c r="G62">
-        <v>406.6150537123917</v>
+        <v>9958.250832051834</v>
       </c>
       <c r="H62">
-        <v>296.0865181398798</v>
+        <v>14481.86705291461</v>
       </c>
       <c r="I62">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2178,28 +2178,28 @@
     </row>
     <row r="63" spans="2:10">
       <c r="B63">
-        <v>350.2552596622116</v>
+        <v>6840.932945114138</v>
       </c>
       <c r="C63">
-        <v>524.3187122345568</v>
+        <v>11944.1924845621</v>
       </c>
       <c r="D63">
-        <v>-0.0008076461122077661</v>
+        <v>-0.006118783313195521</v>
       </c>
       <c r="E63">
-        <v>0.5607218970306309</v>
+        <v>-0.5730647097624829</v>
       </c>
       <c r="F63">
-        <v>-0.8170030374160507</v>
+        <v>0.8349564655413361</v>
       </c>
       <c r="G63">
-        <v>410.2089399395725</v>
+        <v>9923.482064124468</v>
       </c>
       <c r="H63">
-        <v>301.1998812001445</v>
+        <v>14429.63013802855</v>
       </c>
       <c r="I63">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2207,28 +2207,28 @@
     </row>
     <row r="64" spans="2:10">
       <c r="B64">
-        <v>402.9127512023759</v>
+        <v>6790.766721017334</v>
       </c>
       <c r="C64">
-        <v>501.1957569121264</v>
+        <v>12216.55860685538</v>
       </c>
       <c r="D64">
-        <v>0.009062419043844557</v>
+        <v>0.007161214875828328</v>
       </c>
       <c r="E64">
-        <v>0.5507028364927553</v>
+        <v>-0.5645853407431994</v>
       </c>
       <c r="F64">
-        <v>-0.8298800785469664</v>
+        <v>0.8343813265574991</v>
       </c>
       <c r="G64">
-        <v>417.3967123939341</v>
+        <v>9853.944528269738</v>
       </c>
       <c r="H64">
-        <v>311.4266073206741</v>
+        <v>14325.15630825644</v>
       </c>
       <c r="I64">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2236,28 +2236,28 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65">
-        <v>404.0434140980827</v>
+        <v>7232.891607302592</v>
       </c>
       <c r="C65">
-        <v>538.14225608893</v>
+        <v>12082.35590076306</v>
       </c>
       <c r="D65">
-        <v>0.01340063095572533</v>
+        <v>-0.006678819705114916</v>
       </c>
       <c r="E65">
-        <v>0.5800620714706997</v>
+        <v>-0.5903802382707019</v>
       </c>
       <c r="F65">
-        <v>-0.8265527184966385</v>
+        <v>0.8140266434016811</v>
       </c>
       <c r="G65">
-        <v>428.1783710754765</v>
+        <v>9749.638224487642</v>
       </c>
       <c r="H65">
-        <v>326.7666965014683</v>
+        <v>14168.44556359827</v>
       </c>
       <c r="I65">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2265,28 +2265,28 @@
     </row>
     <row r="66" spans="2:10">
       <c r="B66">
-        <v>413.6276301482661</v>
+        <v>7604.169387188852</v>
       </c>
       <c r="C66">
-        <v>512.2859032909844</v>
+        <v>12408.74439401756</v>
       </c>
       <c r="D66">
-        <v>0.006824015383748018</v>
+        <v>-0.001963009196442249</v>
       </c>
       <c r="E66">
-        <v>0.5711407742855444</v>
+        <v>-0.5769867042588718</v>
       </c>
       <c r="F66">
-        <v>-0.7938133174455086</v>
+        <v>0.8067947553185782</v>
       </c>
       <c r="G66">
-        <v>442.5539159841997</v>
+        <v>9610.563152778182</v>
       </c>
       <c r="H66">
-        <v>347.2201487425274</v>
+        <v>13959.49790405405</v>
       </c>
       <c r="I66">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2294,28 +2294,28 @@
     </row>
     <row r="67" spans="2:10">
       <c r="B67">
-        <v>444.4118335640067</v>
+        <v>7989.68730606185</v>
       </c>
       <c r="C67">
-        <v>563.149604299412</v>
+        <v>12711.00705463761</v>
       </c>
       <c r="D67">
-        <v>0.002952991043280347</v>
+        <v>0.008019557502362043</v>
       </c>
       <c r="E67">
-        <v>0.6116495264787879</v>
+        <v>-0.5623314196233824</v>
       </c>
       <c r="F67">
-        <v>-0.8311956778715408</v>
+        <v>0.8306261601240659</v>
       </c>
       <c r="G67">
-        <v>460.5233471201037</v>
+        <v>9436.719313141357</v>
       </c>
       <c r="H67">
-        <v>372.7869640438512</v>
+        <v>13698.31332962377</v>
       </c>
       <c r="I67">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2323,28 +2323,28 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68">
-        <v>480.9613165214376</v>
+        <v>8108.795029631702</v>
       </c>
       <c r="C68">
-        <v>615.291615107021</v>
+        <v>12898.62929578883</v>
       </c>
       <c r="D68">
-        <v>0.006367386812261142</v>
+        <v>-0.0009357091311507339</v>
       </c>
       <c r="E68">
-        <v>0.5896531245941554</v>
+        <v>-0.5397930901943423</v>
       </c>
       <c r="F68">
-        <v>-0.8121950585794498</v>
+        <v>0.8001449642176142</v>
       </c>
       <c r="G68">
-        <v>482.0866644831885</v>
+        <v>9228.106705577167</v>
       </c>
       <c r="H68">
-        <v>403.4671424054397</v>
+        <v>13384.89184030743</v>
       </c>
       <c r="I68">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2352,28 +2352,28 @@
     </row>
     <row r="69" spans="2:10">
       <c r="B69">
-        <v>524.6367069443567</v>
+        <v>8166.572671864771</v>
       </c>
       <c r="C69">
-        <v>585.6946702631236</v>
+        <v>13456.27997172798</v>
       </c>
       <c r="D69">
-        <v>0.01279133004498595</v>
+        <v>-0.001819727036924468</v>
       </c>
       <c r="E69">
-        <v>0.5932230224465493</v>
+        <v>-0.57742451185818</v>
       </c>
       <c r="F69">
-        <v>-0.8196679616609419</v>
+        <v>0.807996571076782</v>
       </c>
       <c r="G69">
-        <v>507.2438680734541</v>
+        <v>8984.725330085612</v>
       </c>
       <c r="H69">
-        <v>439.2606838272931</v>
+        <v>13019.23343610504</v>
       </c>
       <c r="I69">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2381,28 +2381,28 @@
     </row>
     <row r="70" spans="2:10">
       <c r="B70">
-        <v>585.8467989547948</v>
+        <v>9049.906448294221</v>
       </c>
       <c r="C70">
-        <v>692.1799584366573</v>
+        <v>13437.13276616284</v>
       </c>
       <c r="D70">
-        <v>-0.005452249065887766</v>
+        <v>-0.007368975721703636</v>
       </c>
       <c r="E70">
-        <v>0.584868832586327</v>
+        <v>-0.5913619520606993</v>
       </c>
       <c r="F70">
-        <v>-0.8237102512377232</v>
+        <v>0.8439826074247775</v>
       </c>
       <c r="G70">
-        <v>535.9949578909005</v>
+        <v>8706.575186666691</v>
       </c>
       <c r="H70">
-        <v>480.1675883094111</v>
+        <v>12601.3381170166</v>
       </c>
       <c r="I70">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2410,28 +2410,28 @@
     </row>
     <row r="71" spans="2:10">
       <c r="B71">
-        <v>661.5980755619023</v>
+        <v>9558.580882849299</v>
       </c>
       <c r="C71">
-        <v>689.0799912134811</v>
+        <v>13774.02045077488</v>
       </c>
       <c r="D71">
-        <v>-0.002531971468963872</v>
+        <v>-0.003544827731826007</v>
       </c>
       <c r="E71">
-        <v>0.5628382523479611</v>
+        <v>-0.5607921872106814</v>
       </c>
       <c r="F71">
-        <v>-0.8026941182699056</v>
+        <v>0.8328414071246176</v>
       </c>
       <c r="G71">
-        <v>568.3399339355277</v>
+        <v>8393.656275320405</v>
       </c>
       <c r="H71">
-        <v>526.187855851794</v>
+        <v>12131.2058830421</v>
       </c>
       <c r="I71">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -2439,28 +2439,28 @@
     </row>
     <row r="72" spans="2:10">
       <c r="B72">
-        <v>702.7561062529746</v>
+        <v>9985.314496288114</v>
       </c>
       <c r="C72">
-        <v>740.2809144750825</v>
+        <v>14433.64198750501</v>
       </c>
       <c r="D72">
-        <v>-0.005609155484618425</v>
+        <v>0.005817877102692699</v>
       </c>
       <c r="E72">
-        <v>0.5936453833204445</v>
+        <v>-0.524828693856497</v>
       </c>
       <c r="F72">
-        <v>-0.8159906534190488</v>
+        <v>0.8042917048932898</v>
       </c>
       <c r="G72">
-        <v>604.2787962073357</v>
+        <v>8045.968596046755</v>
       </c>
       <c r="H72">
-        <v>577.3214864544416</v>
+        <v>11608.83673418154</v>
       </c>
       <c r="I72">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2468,28 +2468,28 @@
     </row>
     <row r="73" spans="2:10">
       <c r="B73">
-        <v>751.973619111616</v>
+        <v>10492.44700331173</v>
       </c>
       <c r="C73">
-        <v>667.3267187764206</v>
+        <v>14576.31948274404</v>
       </c>
       <c r="D73">
-        <v>-0.001338903495305165</v>
+        <v>-0.0008859140040380014</v>
       </c>
       <c r="E73">
-        <v>0.5878246544704715</v>
+        <v>-0.5287914509862409</v>
       </c>
       <c r="F73">
-        <v>-0.788200424386855</v>
+        <v>0.8527406915641053</v>
       </c>
       <c r="G73">
-        <v>640.2176584791438</v>
+        <v>7698.280916773105</v>
       </c>
       <c r="H73">
-        <v>628.4551170570892</v>
+        <v>11086.46758532098</v>
       </c>
       <c r="I73">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -2497,28 +2497,28 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74">
-        <v>819.5961381583961</v>
+        <v>11153.91544616909</v>
       </c>
       <c r="C74">
-        <v>520.1139564458393</v>
+        <v>15135.63089855534</v>
       </c>
       <c r="D74">
-        <v>-0.009149398223893134</v>
+        <v>-0.008324196188521765</v>
       </c>
       <c r="E74">
-        <v>0.550476148577867</v>
+        <v>-0.5377248094302837</v>
       </c>
       <c r="F74">
-        <v>-0.790234129018165</v>
+        <v>0.8194440594822601</v>
       </c>
       <c r="G74">
-        <v>676.1565207509518</v>
+        <v>7350.593237499455</v>
       </c>
       <c r="H74">
-        <v>679.5887476597368</v>
+        <v>10564.09843646042</v>
       </c>
       <c r="I74">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2526,28 +2526,28 @@
     </row>
     <row r="75" spans="2:10">
       <c r="B75">
-        <v>905.0278508346453</v>
+        <v>11775.4968688714</v>
       </c>
       <c r="C75">
-        <v>460.4469104901432</v>
+        <v>15405.9475197721</v>
       </c>
       <c r="D75">
-        <v>0.001125296899662987</v>
+        <v>0.003629852477183665</v>
       </c>
       <c r="E75">
-        <v>0.5940628750791732</v>
+        <v>-0.5558403435455597</v>
       </c>
       <c r="F75">
-        <v>-0.839335998144457</v>
+        <v>0.8401249278824592</v>
       </c>
       <c r="G75">
-        <v>708.501496795579</v>
+        <v>7037.674326153169</v>
       </c>
       <c r="H75">
-        <v>725.6090152021196</v>
+        <v>10093.96620248592</v>
       </c>
       <c r="I75">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -2555,28 +2555,28 @@
     </row>
     <row r="76" spans="2:10">
       <c r="B76">
-        <v>975.4713535060689</v>
+        <v>12650.9120294675</v>
       </c>
       <c r="C76">
-        <v>410.5202837248574</v>
+        <v>15699.10409257487</v>
       </c>
       <c r="D76">
-        <v>-0.004600089610394297</v>
+        <v>7.020138918316653e-05</v>
       </c>
       <c r="E76">
-        <v>0.5748686502373449</v>
+        <v>-0.5800822454341871</v>
       </c>
       <c r="F76">
-        <v>-0.8091215663782647</v>
+        <v>0.8250359211254578</v>
       </c>
       <c r="G76">
-        <v>737.2525866130254</v>
+        <v>6759.524182734249</v>
       </c>
       <c r="H76">
-        <v>766.5159196842377</v>
+        <v>9676.070883397473</v>
       </c>
       <c r="I76">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2584,28 +2584,28 @@
     </row>
     <row r="77" spans="2:10">
       <c r="B77">
-        <v>941.2036244426874</v>
+        <v>13121.53536117559</v>
       </c>
       <c r="C77">
-        <v>363.8920020658051</v>
+        <v>16414.7004113841</v>
       </c>
       <c r="D77">
-        <v>0.004358039876861011</v>
+        <v>0.009415931476093747</v>
       </c>
       <c r="E77">
-        <v>0.5538597563331582</v>
+        <v>-0.5380905989152037</v>
       </c>
       <c r="F77">
-        <v>-0.8074799620774821</v>
+        <v>0.8529000823994871</v>
       </c>
       <c r="G77">
-        <v>762.409790203291</v>
+        <v>6516.142807242693</v>
       </c>
       <c r="H77">
-        <v>802.309461106091</v>
+        <v>9310.412479195084</v>
       </c>
       <c r="I77">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -2613,28 +2613,28 @@
     </row>
     <row r="78" spans="2:10">
       <c r="B78">
-        <v>1040.604662311363</v>
+        <v>13012.07276137749</v>
       </c>
       <c r="C78">
-        <v>289.5485500954908</v>
+        <v>16136.50688838797</v>
       </c>
       <c r="D78">
-        <v>0.0009349277898585498</v>
+        <v>0.008753413719203833</v>
       </c>
       <c r="E78">
-        <v>0.6054467409659028</v>
+        <v>-0.5975684799503984</v>
       </c>
       <c r="F78">
-        <v>-0.847760691441617</v>
+        <v>0.8311008974932442</v>
       </c>
       <c r="G78">
-        <v>783.9731075663758</v>
+        <v>6307.530199678503</v>
       </c>
       <c r="H78">
-        <v>832.9896394676796</v>
+        <v>8996.990989878748</v>
       </c>
       <c r="I78">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2642,28 +2642,28 @@
     </row>
     <row r="79" spans="2:10">
       <c r="B79">
-        <v>1071.462126441357</v>
+        <v>13234.60539606213</v>
       </c>
       <c r="C79">
-        <v>257.3962166571632</v>
+        <v>15422.32490058087</v>
       </c>
       <c r="D79">
-        <v>0.006795075137923752</v>
+        <v>-0.004087262583684118</v>
       </c>
       <c r="E79">
-        <v>0.5561842276328972</v>
+        <v>-0.5741413478856107</v>
       </c>
       <c r="F79">
-        <v>-0.7857474028089887</v>
+        <v>0.8410262340933592</v>
       </c>
       <c r="G79">
-        <v>801.9425387022798</v>
+        <v>6133.686360041677</v>
       </c>
       <c r="H79">
-        <v>858.5564547690034</v>
+        <v>8735.806415448469</v>
       </c>
       <c r="I79">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -2671,28 +2671,28 @@
     </row>
     <row r="80" spans="2:10">
       <c r="B80">
-        <v>1101.451747096525</v>
+        <v>13973.98005166845</v>
       </c>
       <c r="C80">
-        <v>224.9841358701491</v>
+        <v>15739.08372783894</v>
       </c>
       <c r="D80">
-        <v>0.005418331243037993</v>
+        <v>-0.003953687704591998</v>
       </c>
       <c r="E80">
-        <v>0.5868228864872963</v>
+        <v>-0.5690262931258158</v>
       </c>
       <c r="F80">
-        <v>-0.8205143628115188</v>
+        <v>0.832883163613119</v>
       </c>
       <c r="G80">
-        <v>816.318083611003</v>
+        <v>5994.611288332217</v>
       </c>
       <c r="H80">
-        <v>879.0099070100624</v>
+        <v>8526.858755904246</v>
       </c>
       <c r="I80">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2700,28 +2700,28 @@
     </row>
     <row r="81" spans="2:10">
       <c r="B81">
-        <v>1078.588582112443</v>
+        <v>13780.15414731501</v>
       </c>
       <c r="C81">
-        <v>181.4823397051117</v>
+        <v>15226.30876154083</v>
       </c>
       <c r="D81">
-        <v>-0.002839479712262382</v>
+        <v>0.004263648906057452</v>
       </c>
       <c r="E81">
-        <v>0.5700925537440314</v>
+        <v>-0.5804063968822137</v>
       </c>
       <c r="F81">
-        <v>-0.8061275444952386</v>
+        <v>0.8429734669622899</v>
       </c>
       <c r="G81">
-        <v>827.0997422925453</v>
+        <v>5890.304984550122</v>
       </c>
       <c r="H81">
-        <v>894.3499961908567</v>
+        <v>8370.148011246079</v>
       </c>
       <c r="I81">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -2729,28 +2729,28 @@
     </row>
     <row r="82" spans="2:10">
       <c r="B82">
-        <v>1111.782874327391</v>
+        <v>14371.45591841437</v>
       </c>
       <c r="C82">
-        <v>168.2749964254161</v>
+        <v>15176.33814175976</v>
       </c>
       <c r="D82">
-        <v>-0.001903185415189679</v>
+        <v>-0.001638787926647821</v>
       </c>
       <c r="E82">
-        <v>0.5780107595600895</v>
+        <v>-0.5640213391848484</v>
       </c>
       <c r="F82">
-        <v>-0.7896890648082232</v>
+        <v>0.8281692643560026</v>
       </c>
       <c r="G82">
-        <v>834.2875147469069</v>
+        <v>5820.767448695392</v>
       </c>
       <c r="H82">
-        <v>904.5767223113862</v>
+        <v>8265.674181473967</v>
       </c>
       <c r="I82">
-        <v>4.099758191179586</v>
+        <v>0.9835341751041127</v>
       </c>
       <c r="J82">
         <v>0</v>
